--- a/proj_synth.xlsx
+++ b/proj_synth.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="C_C++" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="241">
   <si>
     <t xml:space="preserve">Nom</t>
   </si>
@@ -58,6 +58,9 @@
     <t xml:space="preserve">rand() ne donne un résultat prédictible</t>
   </si>
   <si>
+    <t xml:space="preserve">rand</t>
+  </si>
+  <si>
     <t xml:space="preserve">rand() is not cryptographically secure</t>
   </si>
   <si>
@@ -130,10 +133,10 @@
     <t xml:space="preserve"> int gnutls_crypto_register_digest (gnutls_digest_algorithm_t algorithm, int priority, gnutls_digest_init_func init, gnutls_digest_hash_func hash, gnutls_digest_output_func output, gnutls_digest_deinit_func deinit, gnutls_digest_fast_func hash_fast)</t>
   </si>
   <si>
-    <t xml:space="preserve"> gnutls_crypto_register_digest (</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gnutls_crypto_register_digest(</t>
+    <t xml:space="preserve">gnutls_crypto_register_digest (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gnutls_crypto_register_digest(</t>
   </si>
   <si>
     <t xml:space="preserve"> int gnutls_crypto_register_mac (gnutls_mac_algorithm_t algorithm, int priority, gnutls_mac_init_func init, gnutls_mac_setkey_func setkey, gnutls_mac_setnonce_func setnonce, gnutls_mac_hash_func hash, gnutls_mac_output_func output, gnutls_mac_deinit_func deinit, gnutls_mac_fast_func hash_fast)</t>
@@ -178,6 +181,15 @@
     <t xml:space="preserve">gnutls_x509_privkey_sign_hash(</t>
   </si>
   <si>
+    <t xml:space="preserve">gnutls_rnd()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gnutls_rnd(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Samba, GnuTLS gnutls_rnd() can fail and give predictable random values</t>
+  </si>
+  <si>
     <t xml:space="preserve">libsodium</t>
   </si>
   <si>
@@ -382,13 +394,19 @@
     <t xml:space="preserve">Javax.crypto.Cipher </t>
   </si>
   <si>
+    <t xml:space="preserve">Cipher.newInstance(AES)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est en mode ECB par défaut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cipher.newInstance(</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cipher.getInstance(AES)</t>
   </si>
   <si>
-    <t xml:space="preserve">Est en mode ECB par défaut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.getInstance(</t>
+    <t xml:space="preserve">Cipher.getInstance(</t>
   </si>
   <si>
     <t xml:space="preserve">Apache Shiro</t>
@@ -740,7 +758,7 @@
     <numFmt numFmtId="166" formatCode="dd/mmm/yy"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -804,6 +822,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -1057,7 +1081,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1110,7 +1134,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1159,6 +1183,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1175,59 +1207,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1277,14 +1277,6 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -1620,12 +1612,12 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F43" activeCellId="0" sqref="F43"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="155.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="255.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="72.29"/>
@@ -1672,59 +1664,59 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1733,13 +1725,13 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1748,323 +1740,325 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="B7" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F10" s="10" t="n">
         <v>3</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="5"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="10" t="n">
         <v>3</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="5"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="10" t="n">
         <v>3</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="5"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="10" t="n">
         <v>3</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="10" t="n">
         <v>3</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="F21" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G21" s="7" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="C22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G22" s="11" t="s">
+      <c r="D22" s="5" t="s">
         <v>58</v>
       </c>
+      <c r="E22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="D23" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>58</v>
+      <c r="E23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="9" t="s">
+      <c r="C24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F24" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2072,50 +2066,50 @@
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>58</v>
+      <c r="E25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="9" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G26" s="11" t="s">
+      <c r="F26" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
+      <c r="B27" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>68</v>
+      <c r="D27" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2123,14 +2117,14 @@
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>68</v>
+      <c r="E28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2138,14 +2132,14 @@
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>68</v>
+      <c r="E29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2153,14 +2147,14 @@
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F30" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2168,14 +2162,14 @@
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>68</v>
+      <c r="E31" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2183,14 +2177,14 @@
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>68</v>
+      <c r="E32" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2198,14 +2192,14 @@
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>68</v>
+      <c r="E33" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2213,94 +2207,94 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F34" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>68</v>
+      <c r="E34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G35" s="7" t="s">
+      <c r="F35" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
+      <c r="B36" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="F36" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G36" s="11" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
+      <c r="B37" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="E37" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="F37" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="5" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F37" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="9" t="s">
+      <c r="C38" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F38" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>92</v>
+      <c r="D38" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2308,14 +2302,14 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>92</v>
+      <c r="E39" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2323,14 +2317,14 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F40" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>92</v>
+      <c r="E40" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2338,58 +2332,72 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="F41" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G42" s="11" t="s">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5" t="s">
         <v>100</v>
       </c>
+      <c r="F42" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="D43" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="E43" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13" t="s">
+      <c r="F43" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G43" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F43" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="15" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="14" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B44" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -2398,8 +2406,8 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="D4:D6"/>
-    <mergeCell ref="A7:A20"/>
-    <mergeCell ref="B7:B20"/>
+    <mergeCell ref="A7:A21"/>
+    <mergeCell ref="B7:B21"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="C9:C10"/>
@@ -2410,20 +2418,20 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="C26:C34"/>
-    <mergeCell ref="D26:D34"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="C27:C35"/>
+    <mergeCell ref="D27:D35"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -2437,7 +2445,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G36" r:id="rId1" display="This library was replaced by MbedTLS(https://github.com/Mbed-TLS/mbedtls)."/>
+    <hyperlink ref="G37" r:id="rId1" display="This library was replaced by MbedTLS(https://github.com/Mbed-TLS/mbedtls)."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2454,19 +2462,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="196.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="93.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="96.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="96.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="149.82"/>
   </cols>
@@ -2495,596 +2503,616 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>109</v>
+      <c r="A2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>117</v>
+      <c r="A4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="20" t="s">
+      <c r="A5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
+      <c r="E6" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="A7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="17" t="s">
+      <c r="A8" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" s="19" t="s">
+      <c r="B8" s="9" t="s">
         <v>132</v>
       </c>
+      <c r="C8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
+      <c r="A10" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>140</v>
-      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>140</v>
+      <c r="B13" s="9"/>
+      <c r="C13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>145</v>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>145</v>
+      <c r="B15" s="9"/>
+      <c r="C15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>149</v>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>155</v>
-      </c>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>155</v>
+      <c r="A20" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="F21" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>155</v>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="F22" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>155</v>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="G23" s="22" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>23</v>
+      <c r="F24" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>160</v>
+      <c r="A25" s="8"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="F26" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>160</v>
+      <c r="A26" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="F28" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G28" s="19" t="s">
+      <c r="A28" s="8" t="s">
         <v>168</v>
       </c>
+      <c r="B28" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="23" t="s">
+      <c r="A29" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
+      <c r="B29" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="D30" s="17" t="s">
+      <c r="A30" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="B30" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F30" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G30" s="19" t="s">
+      <c r="C30" s="20" t="s">
         <v>177</v>
       </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="20" t="s">
+      <c r="A31" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F31" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>177</v>
+      <c r="B31" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="F32" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>177</v>
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="F33" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>177</v>
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="C34" s="17" t="s">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="F34" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>185</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B35" s="26" t="s">
+      <c r="A35" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="B35" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="F35" s="27" t="n">
-        <v>3</v>
-      </c>
-      <c r="G35" s="28" t="s">
+      <c r="C35" s="5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F35" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A9:A18"/>
-    <mergeCell ref="B9:B18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
+  <mergeCells count="20">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:D34"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
@@ -3105,16 +3133,16 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" display="https://www.bouncycastle.org/docs/tlsdocs1.8on/deprecated-list.html"/>
-    <hyperlink ref="C9" r:id="rId2" display="https://google.github.io/tink/javadoc/tink/1.0.0/deprecated-list.html"/>
-    <hyperlink ref="C10" r:id="rId3" display="https://developers.google.com/tink/known-issues"/>
-    <hyperlink ref="G12" r:id="rId4" display="This class was deprecated in the Google tink library, use Config and HybridConfig instead. For more info: https://google.github.io/tink/javadoc/tink/1.0.0/deprecated-list.html."/>
-    <hyperlink ref="G13" r:id="rId5" display="This class was deprecated in the Google tink library, use Config and HybridConfig instead. For more info: https://google.github.io/tink/javadoc/tink/1.0.0/deprecated-list.html."/>
-    <hyperlink ref="G14" r:id="rId6" display="This class was deprecated in the Google tink library, use Config and SignatureConfig instead. For more info: https://google.github.io/tink/javadoc/tink/1.0.0/deprecated-list.html."/>
-    <hyperlink ref="G15" r:id="rId7" display="This class was deprecated in the Google tink library, use Config and SignatureConfig instead. For more info: https://google.github.io/tink/javadoc/tink/1.0.0/deprecated-list.html."/>
-    <hyperlink ref="G16" r:id="rId8" display="This method is deprecated in multiple classes of the Google tink library, use read() instead. For more info: https://google.github.io/tink/javadoc/tink/1.0.0/deprecated-list.html."/>
-    <hyperlink ref="C29" r:id="rId9" display="https://www.javadoc.io/doc/org.pac4j/pac4j-core/5.7.0/deprecated-list.html"/>
-    <hyperlink ref="C35" r:id="rId10" display="Abandonned (https://github.com/wg/scrypt/issues)"/>
+    <hyperlink ref="C8" r:id="rId1" display="https://www.bouncycastle.org/docs/tlsdocs1.8on/deprecated-list.html"/>
+    <hyperlink ref="C10" r:id="rId2" display="https://google.github.io/tink/javadoc/tink/1.0.0/deprecated-list.html"/>
+    <hyperlink ref="C11" r:id="rId3" display="https://developers.google.com/tink/known-issues"/>
+    <hyperlink ref="G13" r:id="rId4" display="This class was deprecated in the Google tink library, use Config and HybridConfig instead. For more info: https://google.github.io/tink/javadoc/tink/1.0.0/deprecated-list.html."/>
+    <hyperlink ref="G14" r:id="rId5" display="This class was deprecated in the Google tink library, use Config and HybridConfig instead. For more info: https://google.github.io/tink/javadoc/tink/1.0.0/deprecated-list.html."/>
+    <hyperlink ref="G15" r:id="rId6" display="This class was deprecated in the Google tink library, use Config and SignatureConfig instead. For more info: https://google.github.io/tink/javadoc/tink/1.0.0/deprecated-list.html."/>
+    <hyperlink ref="G16" r:id="rId7" display="This class was deprecated in the Google tink library, use Config and SignatureConfig instead. For more info: https://google.github.io/tink/javadoc/tink/1.0.0/deprecated-list.html."/>
+    <hyperlink ref="G17" r:id="rId8" display="This method is deprecated in multiple classes of the Google tink library, use read() instead. For more info: https://google.github.io/tink/javadoc/tink/1.0.0/deprecated-list.html."/>
+    <hyperlink ref="C30" r:id="rId9" display="https://www.javadoc.io/doc/org.pac4j/pac4j-core/5.7.0/deprecated-list.html"/>
+    <hyperlink ref="C36" r:id="rId10" display="Abandonned (https://github.com/wg/scrypt/issues)"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3133,17 +3161,17 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="112.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="171.77"/>
   </cols>
@@ -3172,154 +3200,154 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="F2" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>194</v>
+      <c r="A2" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>155</v>
+        <v>159</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>155</v>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="F5" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>155</v>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="F6" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>155</v>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>23</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>23</v>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="F9" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>196</v>
+        <v>201</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="F10" s="27" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>198</v>
+      <c r="A10" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3327,27 +3355,27 @@
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A8"/>
   </mergeCells>
-  <conditionalFormatting sqref="F1:F2 F9:F1048576">
+  <conditionalFormatting sqref="F1:F2 F6:F1048576">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F2 F9:F1048576">
+  <conditionalFormatting sqref="F1:F2 F6:F1048576">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F2 F9:F1048576">
+  <conditionalFormatting sqref="F1:F2 F6:F1048576">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F8">
+  <conditionalFormatting sqref="F3:F10">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F8">
+  <conditionalFormatting sqref="F3:F10">
     <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>0</formula>
     </cfRule>
@@ -3355,7 +3383,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F8">
+  <conditionalFormatting sqref="F3:F10">
     <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>1</formula>
     </cfRule>
@@ -3377,11 +3405,11 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="189.11"/>
@@ -3393,262 +3421,262 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="31" t="s">
+      <c r="D1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="F2" s="34" t="n">
-        <v>3</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>202</v>
+      <c r="A2" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="F3" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" s="38" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3" s="31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="26"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" s="31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="26"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="26"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="36" t="s">
+      <c r="E7" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="F4" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="F5" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="F6" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="F7" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="F8" s="34" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="F9" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="42" t="s">
+      <c r="A8" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B8" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="F8" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="E10" s="33" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="F10" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="35" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="F11" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" s="35" t="s">
+      <c r="E9" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" s="31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" s="32" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="F12" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>227</v>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" s="31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="F12" s="31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="F13" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>234</v>
+      <c r="A13" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" s="31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
